--- a/demo_ecosystem_data.xlsx
+++ b/demo_ecosystem_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.5430534813131</v>
+        <v>424.7240713084175</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4802.857225639665</v>
       </c>
       <c r="D2" t="n">
-        <v>190.6357182178841</v>
+        <v>758.7945476302646</v>
       </c>
       <c r="E2" t="n">
-        <v>218.5430534813131</v>
+        <v>4802.857225639665</v>
       </c>
       <c r="F2" t="n">
-        <v>3927.97576724562</v>
+        <v>3394.633936788146</v>
       </c>
       <c r="G2" t="n">
-        <v>339463.3936788146</v>
+        <v>162407.4561769746</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -559,10 +559,10 @@
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1789190216575591</v>
+        <v>35.53137115064233</v>
       </c>
       <c r="M2" t="n">
         <v>100</v>
@@ -574,389 +574,389 @@
         <v>50</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.07156760866302</v>
+        <v>54.87195980544963</v>
       </c>
       <c r="R2" t="n">
-        <v>31.66666666666667</v>
+        <v>51.66666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ginkgo Bioworks</t>
+          <t>BenchSci</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>439.7792655987208</v>
+        <v>320.501755284444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>124.2118522312097</v>
+        <v>144.5337897812486</v>
       </c>
       <c r="E3" t="n">
-        <v>439.7792655987208</v>
+        <v>320.501755284444</v>
       </c>
       <c r="F3" t="n">
-        <v>3832.290311184182</v>
+        <v>118.5260448662222</v>
       </c>
       <c r="G3" t="n">
-        <v>108233.797718321</v>
+        <v>97291.88669457949</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>11.85260448662222</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7824723220225041</v>
+        <v>1.334981932894136</v>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>66.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="O3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.312988928809</v>
+        <v>0.934487353025895</v>
       </c>
       <c r="R3" t="n">
-        <v>48.33333333333334</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10x Genomics</t>
+          <t>Biovia</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.0949803242604</v>
+        <v>772.7374508106509</v>
       </c>
       <c r="C4" t="n">
-        <v>1733.618039413735</v>
+        <v>13253.20294340452</v>
       </c>
       <c r="D4" t="n">
-        <v>373.8180186635839</v>
+        <v>2216.968971838151</v>
       </c>
       <c r="E4" t="n">
-        <v>1733.618039413735</v>
+        <v>13253.20294340452</v>
       </c>
       <c r="F4" t="n">
-        <v>3099.025726528952</v>
+        <v>12871.34647448357</v>
       </c>
       <c r="G4" t="n">
-        <v>272778.0074568463</v>
+        <v>1147917.527963174</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.31218680502843</v>
+        <v>100</v>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>66.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.72487472201137</v>
+        <v>100</v>
       </c>
       <c r="R4" t="n">
-        <v>63.33333333333334</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Illumina</t>
+          <t>CDD Vault</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.2169728028273</v>
+        <v>181.4650918408482</v>
       </c>
       <c r="C5" t="n">
-        <v>21486.28294821613</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2824.279936868144</v>
+        <v>79.60875022580143</v>
       </c>
       <c r="E5" t="n">
-        <v>21486.28294821613</v>
+        <v>181.4650918408482</v>
       </c>
       <c r="F5" t="n">
-        <v>16777.6394208952</v>
+        <v>510.4629857953323</v>
       </c>
       <c r="G5" t="n">
-        <v>799510.6732375396</v>
+        <v>80665.83652537123</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>51.04629857953323</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>58.19932391793356</v>
+        <v>0.2742557387983627</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>44.46381412025128</v>
       </c>
       <c r="N5" t="n">
-        <v>66.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.27972956717343</v>
+        <v>13.53112325323424</v>
       </c>
       <c r="R5" t="n">
-        <v>63.33333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Twist Bioscience</t>
+          <t>Certara</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>564.526911140863</v>
+        <v>227.8702476319986</v>
       </c>
       <c r="C6" t="n">
-        <v>1682.096494749166</v>
+        <v>3430.179407605754</v>
       </c>
       <c r="D6" t="n">
+        <v>253.4717113185624</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3430.179407605754</v>
+      </c>
+      <c r="F6" t="n">
         <v>158.5464336867516</v>
       </c>
-      <c r="E6" t="n">
-        <v>1682.096494749166</v>
-      </c>
-      <c r="F6" t="n">
-        <v>953.9969835279999</v>
-      </c>
       <c r="G6" t="n">
-        <v>96906.88297671035</v>
+        <v>95399.6983528</v>
       </c>
       <c r="H6" t="n">
-        <v>95.39969835279999</v>
+        <v>15.85464336867516</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.171631160793759</v>
+        <v>25.05905916054999</v>
       </c>
       <c r="M6" t="n">
-        <v>94.755236415024</v>
+        <v>4.540166908783551</v>
       </c>
       <c r="N6" t="n">
-        <v>66.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.5217943133319</v>
+        <v>18.90339148502006</v>
       </c>
       <c r="R6" t="n">
-        <v>33.33333333333334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berkeley Lights</t>
+          <t>Dotmatics</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357.9048619304706</v>
+        <v>258.6032684038303</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3736.932106048628</v>
       </c>
       <c r="D7" t="n">
-        <v>93.62897381052424</v>
+        <v>496.1372443656412</v>
       </c>
       <c r="E7" t="n">
-        <v>357.9048619304706</v>
+        <v>3736.932106048628</v>
       </c>
       <c r="F7" t="n">
-        <v>209.8344113603009</v>
+        <v>1488.152939379115</v>
       </c>
       <c r="G7" t="n">
-        <v>54565.92191001432</v>
+        <v>298070.7640445081</v>
       </c>
       <c r="H7" t="n">
-        <v>20.98344113603009</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.559111209135795</v>
+        <v>27.39930966922189</v>
       </c>
       <c r="M7" t="n">
-        <v>9.913913842562501</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="O7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.171992789191818</v>
+        <v>49.17951676845531</v>
       </c>
       <c r="R7" t="n">
-        <v>15</v>
+        <v>46.66666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zymergen</t>
+          <t>Genedata</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.1350279592919</v>
+        <v>597.5133706123892</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2246.844304357644</v>
       </c>
       <c r="D8" t="n">
-        <v>69.22510445698808</v>
+        <v>568.0612190600298</v>
       </c>
       <c r="E8" t="n">
-        <v>348.1350279592919</v>
+        <v>2246.844304357644</v>
       </c>
       <c r="F8" t="n">
-        <v>568.0612190600298</v>
+        <v>3186.841117373119</v>
       </c>
       <c r="G8" t="n">
-        <v>59203.92514089517</v>
+        <v>173941.7822102108</v>
       </c>
       <c r="H8" t="n">
-        <v>56.80612190600298</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5324581785089952</v>
+        <v>16.03126383433733</v>
       </c>
       <c r="M8" t="n">
-        <v>50.75503819207738</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.66600618665002</v>
+        <v>41.22188468403613</v>
       </c>
       <c r="R8" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Synthetic Genomics</t>
+          <t>Ginkgo Bioworks</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>472.7745237038851</v>
+        <v>452.672307692442</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>180.0171965812533</v>
+        <v>123.6009959741062</v>
       </c>
       <c r="E9" t="n">
-        <v>472.7745237038851</v>
+        <v>452.672307692442</v>
       </c>
       <c r="F9" t="n">
-        <v>638.1099809299766</v>
+        <v>929.6868115208051</v>
       </c>
       <c r="G9" t="n">
-        <v>92968.68115208052</v>
+        <v>17964.32518467275</v>
       </c>
       <c r="H9" t="n">
-        <v>63.81099809299766</v>
+        <v>92.96868115208051</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8724865052123549</v>
+        <v>2.343325801014551</v>
       </c>
       <c r="M9" t="n">
-        <v>58.74123613307034</v>
+        <v>92.02322563591527</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>35.59373628192714</v>
+        <v>29.24729575148476</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -992,203 +992,203 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Amyris</t>
+          <t>KNIME</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>196.3986488434689</v>
+        <v>224.9047803602669</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>83.84868504100159</v>
+        <v>61.55631603704023</v>
       </c>
       <c r="E10" t="n">
-        <v>196.3986488434689</v>
+        <v>224.9047803602669</v>
       </c>
       <c r="F10" t="n">
-        <v>344.2141285965063</v>
+        <v>4314.950036607717</v>
       </c>
       <c r="G10" t="n">
-        <v>84586.37582367365</v>
+        <v>242701.3306774357</v>
       </c>
       <c r="H10" t="n">
-        <v>34.42141285965063</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1185069924699739</v>
+        <v>0.6056619616943947</v>
       </c>
       <c r="M10" t="n">
-        <v>25.23442761688846</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>33.33333333333334</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.18805936712106</v>
+        <v>30.42396337318608</v>
       </c>
       <c r="R10" t="n">
-        <v>16.66666666666667</v>
+        <v>63.33333333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Genomatica</t>
+          <t>Labguru</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4159012386432</v>
+        <v>410.9886413393178</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>162.4174263432676</v>
+        <v>24.16462229915646</v>
       </c>
       <c r="E11" t="n">
-        <v>162.4174263432676</v>
+        <v>410.9886413393178</v>
       </c>
       <c r="F11" t="n">
-        <v>167.0955793117938</v>
+        <v>988.1982429404655</v>
       </c>
       <c r="G11" t="n">
-        <v>98819.82429404656</v>
+        <v>79502.02923669916</v>
       </c>
       <c r="H11" t="n">
-        <v>16.70955793117938</v>
+        <v>98.81982429404655</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02580300520613524</v>
+        <v>2.025316466846053</v>
       </c>
       <c r="M11" t="n">
-        <v>5.041297062555294</v>
+        <v>98.66113377589889</v>
       </c>
       <c r="N11" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.03509943961563</v>
+        <v>31.0160616595619</v>
       </c>
       <c r="R11" t="n">
-        <v>16.66666666666667</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Moderna</t>
+          <t>LabWare</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1723.192142682251</v>
+        <v>624.1144063085703</v>
       </c>
       <c r="C12" t="n">
-        <v>36808.58047314277</v>
+        <v>3916.028672163949</v>
       </c>
       <c r="D12" t="n">
+        <v>794.1433120173511</v>
+      </c>
+      <c r="E12" t="n">
         <v>3916.028672163949</v>
       </c>
-      <c r="E12" t="n">
-        <v>36808.58047314277</v>
-      </c>
       <c r="F12" t="n">
-        <v>16569.05520028919</v>
+        <v>1296.178606936362</v>
       </c>
       <c r="G12" t="n">
-        <v>611066.9776011355</v>
+        <v>243386.2914177091</v>
       </c>
       <c r="H12" t="n">
         <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>28.76565732347349</v>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>33.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>100</v>
+        <v>50.13596012643144</v>
       </c>
       <c r="R12" t="n">
-        <v>36.66666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BioNTech</t>
+          <t>Revvity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1434.947190241337</v>
+        <v>996.3470372789739</v>
       </c>
       <c r="C13" t="n">
-        <v>19890.41111836921</v>
+        <v>7860.125762871064</v>
       </c>
       <c r="D13" t="n">
-        <v>1254.233401144095</v>
+        <v>2243.929286862649</v>
       </c>
       <c r="E13" t="n">
-        <v>19890.41111836921</v>
+        <v>7860.125762871064</v>
       </c>
       <c r="F13" t="n">
-        <v>379.884089544096</v>
+        <v>9877.749830401206</v>
       </c>
       <c r="G13" t="n">
-        <v>39266.49898240723</v>
+        <v>1594409.267507096</v>
       </c>
       <c r="H13" t="n">
-        <v>37.98840895440959</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1197,13 +1197,13 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>53.84563470654719</v>
+        <v>58.85561340090174</v>
       </c>
       <c r="M13" t="n">
-        <v>29.30112859875345</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>33.33333333333334</v>
@@ -1212,32 +1212,32 @@
         <v>50</v>
       </c>
       <c r="P13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.11893104187094</v>
+        <v>71.19892938063121</v>
       </c>
       <c r="R13" t="n">
-        <v>51.66666666666667</v>
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Recursion Pharmaceuticals</t>
+          <t>Sapio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>483.3289550971696</v>
+        <v>103.8174106722358</v>
       </c>
       <c r="C14" t="n">
-        <v>1478.376983753207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>741.9203085006955</v>
+        <v>145.516509572369</v>
       </c>
       <c r="E14" t="n">
-        <v>1478.376983753207</v>
+        <v>145.516509572369</v>
       </c>
       <c r="F14" t="n">
         <v>784.7065437552077</v>
@@ -1249,439 +1249,265 @@
         <v>78.47065437552077</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.615865076961639</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>75.45458176457669</v>
+        <v>75.57574390134782</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="O14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.71909508953066</v>
+        <v>22.67272317040435</v>
       </c>
       <c r="R14" t="n">
-        <v>100</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Atomwise</t>
+          <t>SciNote</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>285.2297732218973</v>
+        <v>242.3934582613473</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>91.23279348812443</v>
+        <v>14.82963408137809</v>
       </c>
       <c r="E15" t="n">
-        <v>285.2297732218973</v>
+        <v>242.3934582613473</v>
       </c>
       <c r="F15" t="n">
-        <v>122.8772140696857</v>
+        <v>197.102284293974</v>
       </c>
       <c r="G15" t="n">
-        <v>19710.2284293974</v>
+        <v>12828.62671180608</v>
       </c>
       <c r="H15" t="n">
-        <v>12.28772140696857</v>
+        <v>19.7102284293974</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3608466970807037</v>
+        <v>0.7390850336404898</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>8.914187307533846</v>
       </c>
       <c r="N15" t="n">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="O15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1443386788322815</v>
+        <v>3.191615715808497</v>
       </c>
       <c r="R15" t="n">
-        <v>83.33333333333334</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Insitro</t>
+          <t>Scispot</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>191.460191484347</v>
+        <v>458.4049132667419</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.6284313212935</v>
+        <v>57.36552353828624</v>
       </c>
       <c r="E16" t="n">
-        <v>191.460191484347</v>
+        <v>458.4049132667419</v>
       </c>
       <c r="F16" t="n">
-        <v>916.8098265334837</v>
+        <v>469.3446307320668</v>
       </c>
       <c r="G16" t="n">
-        <v>32436.30062339874</v>
+        <v>77999.60246887438</v>
       </c>
       <c r="H16" t="n">
-        <v>91.68098265334837</v>
+        <v>46.93446307320668</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1050344139563452</v>
+        <v>2.387060487553157</v>
       </c>
       <c r="M16" t="n">
-        <v>90.51556124171587</v>
+        <v>39.79908695233114</v>
       </c>
       <c r="N16" t="n">
-        <v>100</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P16" t="n">
         <v>100</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.35135051061206</v>
+        <v>13.61066842698655</v>
       </c>
       <c r="R16" t="n">
-        <v>100</v>
+        <v>68.33333333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Schrödinger</t>
+          <t>SimulationsPlus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.9591744712301</v>
+        <v>180.3881538111956</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>24.62618286747067</v>
+        <v>40.63204457826084</v>
       </c>
       <c r="E17" t="n">
-        <v>152.9591744712301</v>
+        <v>180.3881538111956</v>
       </c>
       <c r="F17" t="n">
-        <v>360.7763076223912</v>
+        <v>936.7278871083157</v>
       </c>
       <c r="G17" t="n">
-        <v>24509.9158528604</v>
+        <v>82730.83416079753</v>
       </c>
       <c r="H17" t="n">
-        <v>36.07763076223912</v>
+        <v>93.67278871083157</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.2660396585992447</v>
       </c>
       <c r="M17" t="n">
-        <v>27.12266713039265</v>
+        <v>92.82200993878693</v>
       </c>
       <c r="N17" t="n">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="O17" t="n">
         <v>50</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.27360027823559</v>
+        <v>28.03283074265555</v>
       </c>
       <c r="R17" t="n">
-        <v>48.33333333333334</v>
+        <v>51.66666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CureVac</t>
+          <t>tetrascience</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>442.157265584473</v>
+        <v>133.9565264987161</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>162.6976946108317</v>
+        <v>179.5862097130958</v>
       </c>
       <c r="E18" t="n">
-        <v>442.157265584473</v>
+        <v>179.5862097130958</v>
       </c>
       <c r="F18" t="n">
-        <v>267.9130529974323</v>
+        <v>585.4080177240857</v>
       </c>
       <c r="G18" t="n">
-        <v>90330.309864098</v>
+        <v>82669.61396476562</v>
       </c>
       <c r="H18" t="n">
-        <v>26.79130529974323</v>
+        <v>58.54080177240856</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7889597307786566</v>
+        <v>0.2599215377382669</v>
       </c>
       <c r="M18" t="n">
-        <v>16.53540886797455</v>
+        <v>52.96605420258919</v>
       </c>
       <c r="N18" t="n">
-        <v>33.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="O18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P18" t="n">
         <v>100</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.23682921309619</v>
+        <v>16.07176133719354</v>
       </c>
       <c r="R18" t="n">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AbCellera</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>193.1015637373388</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>30.90986566025859</v>
-      </c>
-      <c r="E19" t="n">
-        <v>193.1015637373388</v>
-      </c>
-      <c r="F19" t="n">
-        <v>305.1416462877475</v>
-      </c>
-      <c r="G19" t="n">
-        <v>48439.70097636307</v>
-      </c>
-      <c r="H19" t="n">
-        <v>30.51416462877475</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.109512232623277</v>
-      </c>
-      <c r="M19" t="n">
-        <v>20.7798081570466</v>
-      </c>
-      <c r="N19" t="n">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="O19" t="n">
-        <v>50</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>12.51168978727727</v>
-      </c>
-      <c r="R19" t="n">
-        <v>48.33333333333334</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Generate Biomedicines</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>279.8362861599046</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>89.30809059826801</v>
-      </c>
-      <c r="E20" t="n">
-        <v>279.8362861599046</v>
-      </c>
-      <c r="F20" t="n">
-        <v>299.8970294236572</v>
-      </c>
-      <c r="G20" t="n">
-        <v>20787.88306003145</v>
-      </c>
-      <c r="H20" t="n">
-        <v>29.98970294236572</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.3461327545231725</v>
-      </c>
-      <c r="M20" t="n">
-        <v>20.18187398543257</v>
-      </c>
-      <c r="N20" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="O20" t="n">
-        <v>50</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>12.24757749306881</v>
-      </c>
-      <c r="R20" t="n">
-        <v>31.66666666666667</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>DeepMind</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>283.4557797845147</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>143.5736021900838</v>
-      </c>
-      <c r="E21" t="n">
-        <v>283.4557797845147</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10454.44403568941</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1957673.124081441</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.3560070752859236</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>100</v>
-      </c>
-      <c r="O21" t="n">
-        <v>100</v>
-      </c>
-      <c r="P21" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>60.14240283011437</v>
-      </c>
-      <c r="R21" t="n">
         <v>100</v>
       </c>
     </row>
